--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pdgfd-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Pdgfrb</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.1926896248761</v>
+        <v>18.49390166666667</v>
       </c>
       <c r="H2">
-        <v>18.1926896248761</v>
+        <v>55.48170500000001</v>
       </c>
       <c r="I2">
-        <v>0.8307460946651853</v>
+        <v>0.8266980363202227</v>
       </c>
       <c r="J2">
-        <v>0.8307460946651853</v>
+        <v>0.8536248137599599</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66892154094224</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N2">
-        <v>7.66892154094224</v>
+        <v>27.492548</v>
       </c>
       <c r="O2">
-        <v>0.03427007228188779</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P2">
-        <v>0.03427007228188779</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q2">
-        <v>139.5183093518887</v>
+        <v>169.4814930927045</v>
       </c>
       <c r="R2">
-        <v>139.5183093518887</v>
+        <v>1525.33343783434</v>
       </c>
       <c r="S2">
-        <v>0.0284697287120719</v>
+        <v>0.03282614094426348</v>
       </c>
       <c r="T2">
-        <v>0.0284697287120719</v>
+        <v>0.04256608370470396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.1926896248761</v>
+        <v>18.49390166666667</v>
       </c>
       <c r="H3">
-        <v>18.1926896248761</v>
+        <v>55.48170500000001</v>
       </c>
       <c r="I3">
-        <v>0.8307460946651853</v>
+        <v>0.8266980363202227</v>
       </c>
       <c r="J3">
-        <v>0.8307460946651853</v>
+        <v>0.8536248137599599</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>74.94191737041329</v>
+        <v>80.32428</v>
       </c>
       <c r="N3">
-        <v>74.94191737041329</v>
+        <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3348925805950776</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P3">
-        <v>0.3348925805950776</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q3">
-        <v>1363.39504261304</v>
+        <v>1485.5093357658</v>
       </c>
       <c r="R3">
-        <v>1363.39504261304</v>
+        <v>13369.5840218922</v>
       </c>
       <c r="S3">
-        <v>0.2782107034617066</v>
+        <v>0.2877219095727123</v>
       </c>
       <c r="T3">
-        <v>0.2782107034617066</v>
+        <v>0.3730927405491929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.1926896248761</v>
+        <v>18.49390166666667</v>
       </c>
       <c r="H4">
-        <v>18.1926896248761</v>
+        <v>55.48170500000001</v>
       </c>
       <c r="I4">
-        <v>0.8307460946651853</v>
+        <v>0.8266980363202227</v>
       </c>
       <c r="J4">
-        <v>0.8307460946651853</v>
+        <v>0.8536248137599599</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.146046409154184</v>
+        <v>0.118916</v>
       </c>
       <c r="N4">
-        <v>0.146046409154184</v>
+        <v>0.356748</v>
       </c>
       <c r="O4">
-        <v>0.0006526368761896478</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P4">
-        <v>0.0006526368761896478</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q4">
-        <v>2.656976992569733</v>
+        <v>2.199220810593333</v>
       </c>
       <c r="R4">
-        <v>2.656976992569733</v>
+        <v>19.79298729534</v>
       </c>
       <c r="S4">
-        <v>0.000542175536129036</v>
+        <v>0.0004259576132988512</v>
       </c>
       <c r="T4">
-        <v>0.000542175536129036</v>
+        <v>0.000552344774645323</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.1926896248761</v>
+        <v>18.49390166666667</v>
       </c>
       <c r="H5">
-        <v>18.1926896248761</v>
+        <v>55.48170500000001</v>
       </c>
       <c r="I5">
-        <v>0.8307460946651853</v>
+        <v>0.8266980363202227</v>
       </c>
       <c r="J5">
-        <v>0.8307460946651853</v>
+        <v>0.8536248137599599</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.022086543386</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N5">
-        <v>141.022086543386</v>
+        <v>0.441194</v>
       </c>
       <c r="O5">
-        <v>0.630184710246845</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P5">
-        <v>0.630184710246845</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q5">
-        <v>2565.571050736238</v>
+        <v>2.719799483974445</v>
       </c>
       <c r="R5">
-        <v>2565.571050736238</v>
+        <v>24.47819535577</v>
       </c>
       <c r="S5">
-        <v>0.5235234869552778</v>
+        <v>0.0005267862559615565</v>
       </c>
       <c r="T5">
-        <v>0.5235234869552778</v>
+        <v>0.0006830905863659184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.68540715167852</v>
+        <v>18.49390166666667</v>
       </c>
       <c r="H6">
-        <v>1.68540715167852</v>
+        <v>55.48170500000001</v>
       </c>
       <c r="I6">
-        <v>0.07696197967689122</v>
+        <v>0.8266980363202227</v>
       </c>
       <c r="J6">
-        <v>0.07696197967689122</v>
+        <v>0.8536248137599599</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66892154094224</v>
+        <v>141.03759</v>
       </c>
       <c r="N6">
-        <v>7.66892154094224</v>
+        <v>282.07518</v>
       </c>
       <c r="O6">
-        <v>0.03427007228188779</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P6">
-        <v>0.03427007228188779</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q6">
-        <v>12.92525521076551</v>
+        <v>2608.33532076365</v>
       </c>
       <c r="R6">
-        <v>12.92525521076551</v>
+        <v>15650.0119245819</v>
       </c>
       <c r="S6">
-        <v>0.002637492606484241</v>
+        <v>0.5051972419339864</v>
       </c>
       <c r="T6">
-        <v>0.002637492606484241</v>
+        <v>0.4367305541450519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.68540715167852</v>
+        <v>1.717012</v>
       </c>
       <c r="H7">
-        <v>1.68540715167852</v>
+        <v>5.151036</v>
       </c>
       <c r="I7">
-        <v>0.07696197967689122</v>
+        <v>0.07675235190077112</v>
       </c>
       <c r="J7">
-        <v>0.07696197967689122</v>
+        <v>0.0792522894920199</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>74.94191737041329</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N7">
-        <v>74.94191737041329</v>
+        <v>27.492548</v>
       </c>
       <c r="O7">
-        <v>0.3348925805950776</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P7">
-        <v>0.3348925805950776</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q7">
-        <v>126.3076434965953</v>
+        <v>15.73501160885866</v>
       </c>
       <c r="R7">
-        <v>126.3076434965953</v>
+        <v>141.615104479728</v>
       </c>
       <c r="S7">
-        <v>0.02577399598170002</v>
+        <v>0.003047646674610579</v>
       </c>
       <c r="T7">
-        <v>0.02577399598170002</v>
+        <v>0.003951923062601328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.68540715167852</v>
+        <v>1.717012</v>
       </c>
       <c r="H8">
-        <v>1.68540715167852</v>
+        <v>5.151036</v>
       </c>
       <c r="I8">
-        <v>0.07696197967689122</v>
+        <v>0.07675235190077112</v>
       </c>
       <c r="J8">
-        <v>0.07696197967689122</v>
+        <v>0.0792522894920199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.146046409154184</v>
+        <v>80.32428</v>
       </c>
       <c r="N8">
-        <v>0.146046409154184</v>
+        <v>240.97284</v>
       </c>
       <c r="O8">
-        <v>0.0006526368761896478</v>
+        <v>0.3480374900289019</v>
       </c>
       <c r="P8">
-        <v>0.0006526368761896478</v>
+        <v>0.437068761984357</v>
       </c>
       <c r="Q8">
-        <v>0.246147662465429</v>
+        <v>137.91775265136</v>
       </c>
       <c r="R8">
-        <v>0.246147662465429</v>
+        <v>1241.25977386224</v>
       </c>
       <c r="S8">
-        <v>5.022822600169745E-05</v>
+        <v>0.0267126959093594</v>
       </c>
       <c r="T8">
-        <v>5.022822600169745E-05</v>
+        <v>0.034638700052703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.68540715167852</v>
+        <v>1.717012</v>
       </c>
       <c r="H9">
-        <v>1.68540715167852</v>
+        <v>5.151036</v>
       </c>
       <c r="I9">
-        <v>0.07696197967689122</v>
+        <v>0.07675235190077112</v>
       </c>
       <c r="J9">
-        <v>0.07696197967689122</v>
+        <v>0.0792522894920199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>141.022086543386</v>
+        <v>0.118916</v>
       </c>
       <c r="N9">
-        <v>141.022086543386</v>
+        <v>0.356748</v>
       </c>
       <c r="O9">
-        <v>0.630184710246845</v>
+        <v>0.0005152517540683451</v>
       </c>
       <c r="P9">
-        <v>0.630184710246845</v>
+        <v>0.0006470580116016202</v>
       </c>
       <c r="Q9">
-        <v>237.6796332048499</v>
+        <v>0.2041801989919999</v>
       </c>
       <c r="R9">
-        <v>237.6796332048499</v>
+        <v>1.837621790927999</v>
       </c>
       <c r="S9">
-        <v>0.04850026286270526</v>
+        <v>3.95467839457432E-05</v>
       </c>
       <c r="T9">
-        <v>0.04850026286270526</v>
+        <v>5.128082885358238E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.02112097686531</v>
+        <v>1.717012</v>
       </c>
       <c r="H10">
-        <v>2.02112097686531</v>
+        <v>5.151036</v>
       </c>
       <c r="I10">
-        <v>0.09229192565792346</v>
+        <v>0.07675235190077112</v>
       </c>
       <c r="J10">
-        <v>0.09229192565792346</v>
+        <v>0.0792522894920199</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66892154094224</v>
+        <v>0.1470646666666666</v>
       </c>
       <c r="N10">
-        <v>7.66892154094224</v>
+        <v>0.441194</v>
       </c>
       <c r="O10">
-        <v>0.03427007228188779</v>
+        <v>0.0006372172580769324</v>
       </c>
       <c r="P10">
-        <v>0.03427007228188779</v>
+        <v>0.0008002234416746982</v>
       </c>
       <c r="Q10">
-        <v>15.4998181963326</v>
+        <v>0.2525117974426666</v>
       </c>
       <c r="R10">
-        <v>15.4998181963326</v>
+        <v>2.272606176984</v>
       </c>
       <c r="S10">
-        <v>0.003162850963331651</v>
+        <v>4.89079232291652E-05</v>
       </c>
       <c r="T10">
-        <v>0.003162850963331651</v>
+        <v>6.341953985790368E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.02112097686531</v>
+        <v>1.717012</v>
       </c>
       <c r="H11">
-        <v>2.02112097686531</v>
+        <v>5.151036</v>
       </c>
       <c r="I11">
-        <v>0.09229192565792346</v>
+        <v>0.07675235190077112</v>
       </c>
       <c r="J11">
-        <v>0.09229192565792346</v>
+        <v>0.0792522894920199</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>74.94191737041329</v>
+        <v>141.03759</v>
       </c>
       <c r="N11">
-        <v>74.94191737041329</v>
+        <v>282.07518</v>
       </c>
       <c r="O11">
-        <v>0.3348925805950776</v>
+        <v>0.6111025062823514</v>
       </c>
       <c r="P11">
-        <v>0.3348925805950776</v>
+        <v>0.5116188600720092</v>
       </c>
       <c r="Q11">
-        <v>151.4666812438491</v>
+        <v>242.16323448108</v>
       </c>
       <c r="R11">
-        <v>151.4666812438491</v>
+        <v>1452.97940688648</v>
       </c>
       <c r="S11">
-        <v>0.03090788115167104</v>
+        <v>0.04690355460962623</v>
       </c>
       <c r="T11">
-        <v>0.03090788115167104</v>
+        <v>0.04054696600800409</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.02112097686531</v>
+        <v>0.04289566666666667</v>
       </c>
       <c r="H12">
-        <v>2.02112097686531</v>
+        <v>0.128687</v>
       </c>
       <c r="I12">
-        <v>0.09229192565792346</v>
+        <v>0.001917484154460294</v>
       </c>
       <c r="J12">
-        <v>0.09229192565792346</v>
+        <v>0.001979939448658399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.146046409154184</v>
+        <v>9.164182666666667</v>
       </c>
       <c r="N12">
-        <v>0.146046409154184</v>
+        <v>27.492548</v>
       </c>
       <c r="O12">
-        <v>0.0006526368761896478</v>
+        <v>0.03970753467660135</v>
       </c>
       <c r="P12">
-        <v>0.0006526368761896478</v>
+        <v>0.04986509649035763</v>
       </c>
       <c r="Q12">
-        <v>0.2951774611373751</v>
+        <v>0.3931037249417778</v>
       </c>
       <c r="R12">
-        <v>0.2951774611373751</v>
+        <v>3.537933524476</v>
       </c>
       <c r="S12">
-        <v>6.023311405891438E-05</v>
+        <v>7.613856855506573E-05</v>
       </c>
       <c r="T12">
-        <v>6.023311405891438E-05</v>
+        <v>9.872987165241656E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.128687</v>
+      </c>
+      <c r="I13">
+        <v>0.001917484154460294</v>
+      </c>
+      <c r="J13">
+        <v>0.001979939448658399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>80.32428</v>
+      </c>
+      <c r="N13">
+        <v>240.97284</v>
+      </c>
+      <c r="O13">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P13">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q13">
+        <v>3.44556354012</v>
+      </c>
+      <c r="R13">
+        <v>31.01007186108</v>
+      </c>
+      <c r="S13">
+        <v>0.0006673563722885521</v>
+      </c>
+      <c r="T13">
+        <v>0.0008653696836291168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.128687</v>
+      </c>
+      <c r="I14">
+        <v>0.001917484154460294</v>
+      </c>
+      <c r="J14">
+        <v>0.001979939448658399</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.118916</v>
+      </c>
+      <c r="N14">
+        <v>0.356748</v>
+      </c>
+      <c r="O14">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P14">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q14">
+        <v>0.005100981097333332</v>
+      </c>
+      <c r="R14">
+        <v>0.04590882987599999</v>
+      </c>
+      <c r="S14">
+        <v>9.87987073983924E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.281135682740512E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.128687</v>
+      </c>
+      <c r="I15">
+        <v>0.001917484154460294</v>
+      </c>
+      <c r="J15">
+        <v>0.001979939448658399</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.441194</v>
+      </c>
+      <c r="O15">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P15">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q15">
+        <v>0.006308436919777777</v>
+      </c>
+      <c r="R15">
+        <v>0.05677593227799999</v>
+      </c>
+      <c r="S15">
+        <v>1.221853995311154E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.584393959912929E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.04289566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.128687</v>
+      </c>
+      <c r="I16">
+        <v>0.001917484154460294</v>
+      </c>
+      <c r="J16">
+        <v>0.001979939448658399</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>141.03759</v>
+      </c>
+      <c r="N16">
+        <v>282.07518</v>
+      </c>
+      <c r="O16">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P16">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q16">
+        <v>6.04990144811</v>
+      </c>
+      <c r="R16">
+        <v>36.29940868865999</v>
+      </c>
+      <c r="S16">
+        <v>0.001171779372547381</v>
+      </c>
+      <c r="T16">
+        <v>0.001012974363734212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.116997</v>
+      </c>
+      <c r="H17">
+        <v>4.233994</v>
+      </c>
+      <c r="I17">
+        <v>0.0946321276245459</v>
+      </c>
+      <c r="J17">
+        <v>0.06514295729936179</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.164182666666667</v>
+      </c>
+      <c r="N17">
+        <v>27.492548</v>
+      </c>
+      <c r="O17">
+        <v>0.03970753467660135</v>
+      </c>
+      <c r="P17">
+        <v>0.04986509649035763</v>
+      </c>
+      <c r="Q17">
+        <v>19.40054721278533</v>
+      </c>
+      <c r="R17">
+        <v>116.403283276712</v>
+      </c>
+      <c r="S17">
+        <v>0.00375760848917222</v>
+      </c>
+      <c r="T17">
+        <v>0.003248359851399922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.116997</v>
+      </c>
+      <c r="H18">
+        <v>4.233994</v>
+      </c>
+      <c r="I18">
+        <v>0.0946321276245459</v>
+      </c>
+      <c r="J18">
+        <v>0.06514295729936179</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>80.32428</v>
+      </c>
+      <c r="N18">
+        <v>240.97284</v>
+      </c>
+      <c r="O18">
+        <v>0.3480374900289019</v>
+      </c>
+      <c r="P18">
+        <v>0.437068761984357</v>
+      </c>
+      <c r="Q18">
+        <v>170.04625978716</v>
+      </c>
+      <c r="R18">
+        <v>1020.27755872296</v>
+      </c>
+      <c r="S18">
+        <v>0.03293552817454167</v>
+      </c>
+      <c r="T18">
+        <v>0.02847195169883189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.116997</v>
+      </c>
+      <c r="H19">
+        <v>4.233994</v>
+      </c>
+      <c r="I19">
+        <v>0.0946321276245459</v>
+      </c>
+      <c r="J19">
+        <v>0.06514295729936179</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.118916</v>
+      </c>
+      <c r="N19">
+        <v>0.356748</v>
+      </c>
+      <c r="O19">
+        <v>0.0005152517540683451</v>
+      </c>
+      <c r="P19">
+        <v>0.0006470580116016202</v>
+      </c>
+      <c r="Q19">
+        <v>0.251744815252</v>
+      </c>
+      <c r="R19">
+        <v>1.510468891512</v>
+      </c>
+      <c r="S19">
+        <v>4.875936974976677E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.215127241997429E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.02112097686531</v>
-      </c>
-      <c r="H13">
-        <v>2.02112097686531</v>
-      </c>
-      <c r="I13">
-        <v>0.09229192565792346</v>
-      </c>
-      <c r="J13">
-        <v>0.09229192565792346</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>141.022086543386</v>
-      </c>
-      <c r="N13">
-        <v>141.022086543386</v>
-      </c>
-      <c r="O13">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="P13">
-        <v>0.630184710246845</v>
-      </c>
-      <c r="Q13">
-        <v>285.0226973141525</v>
-      </c>
-      <c r="R13">
-        <v>285.0226973141525</v>
-      </c>
-      <c r="S13">
-        <v>0.05816096042886185</v>
-      </c>
-      <c r="T13">
-        <v>0.05816096042886185</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.116997</v>
+      </c>
+      <c r="H20">
+        <v>4.233994</v>
+      </c>
+      <c r="I20">
+        <v>0.0946321276245459</v>
+      </c>
+      <c r="J20">
+        <v>0.06514295729936179</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1470646666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.441194</v>
+      </c>
+      <c r="O20">
+        <v>0.0006372172580769324</v>
+      </c>
+      <c r="P20">
+        <v>0.0008002234416746982</v>
+      </c>
+      <c r="Q20">
+        <v>0.3113354581393333</v>
+      </c>
+      <c r="R20">
+        <v>1.868012748836</v>
+      </c>
+      <c r="S20">
+        <v>6.030122489089947E-05</v>
+      </c>
+      <c r="T20">
+        <v>5.212892149096319E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.116997</v>
+      </c>
+      <c r="H21">
+        <v>4.233994</v>
+      </c>
+      <c r="I21">
+        <v>0.0946321276245459</v>
+      </c>
+      <c r="J21">
+        <v>0.06514295729936179</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>141.03759</v>
+      </c>
+      <c r="N21">
+        <v>282.07518</v>
+      </c>
+      <c r="O21">
+        <v>0.6111025062823514</v>
+      </c>
+      <c r="P21">
+        <v>0.5116188600720092</v>
+      </c>
+      <c r="Q21">
+        <v>298.57615491723</v>
+      </c>
+      <c r="R21">
+        <v>1194.30461966892</v>
+      </c>
+      <c r="S21">
+        <v>0.05782993036619134</v>
+      </c>
+      <c r="T21">
+        <v>0.03332836555521905</v>
       </c>
     </row>
   </sheetData>
